--- a/data/seleniumR.xlsx
+++ b/data/seleniumR.xlsx
@@ -16,18 +16,26 @@
     <sheet name="TC6" sheetId="8" r:id="rId7"/>
     <sheet name="TC7" sheetId="9" r:id="rId8"/>
     <sheet name="TC8" sheetId="7" r:id="rId9"/>
+    <sheet name="TC9" sheetId="13" r:id="rId10"/>
+    <sheet name="TC10" sheetId="11" r:id="rId11"/>
+    <sheet name="TC11" sheetId="12" r:id="rId12"/>
+    <sheet name="TC12" sheetId="14" r:id="rId13"/>
+    <sheet name="TC13" sheetId="15" r:id="rId14"/>
+    <sheet name="TC14" sheetId="16" r:id="rId15"/>
+    <sheet name="TC15" sheetId="17" r:id="rId16"/>
+    <sheet name="TC16" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="120">
   <si>
     <t>Section</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Test Case</t>
   </si>
   <si>
     <t>LOGIN</t>
@@ -84,6 +92,63 @@
     <t>MY ACCOUNT</t>
   </si>
   <si>
+    <t>My addresses</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Verify that user can update "Address" field in "Update" section</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Verify that user can delete address in "My addresses" section</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Verify that user can add a new address in "My addresses" section</t>
+  </si>
+  <si>
+    <t>My personal information</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>Verify that only one radio button can be checked at the same time in "My personal information" section</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>Verify that user can leave empty "First name" fields in "My personal information" section</t>
+  </si>
+  <si>
+    <t>My wishlists</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>Verify that user can add one wishlist in "My wishlists" section</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Verify that user can add three wishlists in "My wishlists" section</t>
+  </si>
+  <si>
+    <t>TC16</t>
+  </si>
+  <si>
+    <t>Verify that user can delete one wishlist in "My wishlists" section</t>
+  </si>
+  <si>
     <t>precondition</t>
   </si>
   <si>
@@ -99,48 +164,51 @@
     <t>Click on "Sign in"  button</t>
   </si>
   <si>
-    <t>Enter a valid email adress with following format: [name]@[domain].[xyz]</t>
-  </si>
-  <si>
-    <t>krupezevic93@gmail.com</t>
+    <t>Enter a valid email address with following format: [name]@[domain].[xyz]</t>
+  </si>
+  <si>
+    <t>vojislav@gmail.com</t>
+  </si>
+  <si>
+    <t>Enter a valid password for the entered email adress</t>
+  </si>
+  <si>
+    <t>vojislav</t>
+  </si>
+  <si>
+    <t>expected res</t>
+  </si>
+  <si>
+    <t>User sign in successfully</t>
+  </si>
+  <si>
+    <t>Sign out</t>
+  </si>
+  <si>
+    <t>Enter a valid email address</t>
+  </si>
+  <si>
+    <t>Enter a invalid password</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>User not sign in</t>
+  </si>
+  <si>
+    <t>Invalid password.</t>
+  </si>
+  <si>
+    <t>Enter a invalid email address</t>
+  </si>
+  <si>
+    <t>abcd@gmail.com</t>
   </si>
   <si>
     <t>Enter a valid password</t>
   </si>
   <si>
-    <t>krupezevic93</t>
-  </si>
-  <si>
-    <t>expected res</t>
-  </si>
-  <si>
-    <t>User sign in successfully</t>
-  </si>
-  <si>
-    <t>Sign out</t>
-  </si>
-  <si>
-    <t>Enter a valid email adress</t>
-  </si>
-  <si>
-    <t>Enter a invalid password</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>User not sign in</t>
-  </si>
-  <si>
-    <t>Invalid password.</t>
-  </si>
-  <si>
-    <t>Enter a invalid email adress</t>
-  </si>
-  <si>
-    <t>abcd@gmail.com</t>
-  </si>
-  <si>
     <t>Authentication failed.</t>
   </si>
   <si>
@@ -150,18 +218,12 @@
     <t>An email address required.</t>
   </si>
   <si>
-    <t>Enter a valid email</t>
-  </si>
-  <si>
     <t>Verify that "Password" filed is empty</t>
   </si>
   <si>
     <t>Password is required.</t>
   </si>
   <si>
-    <t>Verify that "Email adress" filed is empty</t>
-  </si>
-  <si>
     <t>Click on "Sign out"  button</t>
   </si>
   <si>
@@ -169,6 +231,165 @@
   </si>
   <si>
     <t>Sign in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opened http://automationpractice.com/index.php and user already registered on that site, user login </t>
+  </si>
+  <si>
+    <t>Click on "MY ADDRESSES"  button</t>
+  </si>
+  <si>
+    <t>Click on “Update” button</t>
+  </si>
+  <si>
+    <t>Clear the address in "Address" field</t>
+  </si>
+  <si>
+    <t>Enter a new address in the “Address” field</t>
+  </si>
+  <si>
+    <t>Zmaj Jovina</t>
+  </si>
+  <si>
+    <t>Click on “Save” button</t>
+  </si>
+  <si>
+    <t>The user successfully update "Address" field</t>
+  </si>
+  <si>
+    <t>Click on "Delete"  button</t>
+  </si>
+  <si>
+    <t>Click on "Yes" button</t>
+  </si>
+  <si>
+    <t>The user successfully delete address</t>
+  </si>
+  <si>
+    <t>No addresses are available. Add a new address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opened http://automationpractice.com/index.php and user already registered on that site, user is already login </t>
+  </si>
+  <si>
+    <t>Click on "Add a new address"  button</t>
+  </si>
+  <si>
+    <t>Enter address in "Address" filed</t>
+  </si>
+  <si>
+    <t>Savska</t>
+  </si>
+  <si>
+    <t>Enter city in "City" filed</t>
+  </si>
+  <si>
+    <t>Novi Sad</t>
+  </si>
+  <si>
+    <t>Select state from drop down menu</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Enter zip/postal code in "Zip/Postal Code" field</t>
+  </si>
+  <si>
+    <t>Enter mobile phone in “Mobile phone” field</t>
+  </si>
+  <si>
+    <t>1234567</t>
+  </si>
+  <si>
+    <t>Enter assign an address in “Assign an address alias for future reference”</t>
+  </si>
+  <si>
+    <t>AddressTest</t>
+  </si>
+  <si>
+    <t>Click on "Save"</t>
+  </si>
+  <si>
+    <t>The user successfully added a new address</t>
+  </si>
+  <si>
+    <t>ADDRESSTEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opened http://automationpractice.com/index.php and user already registered on that site, user is already logged in </t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>Click on “My personal information” button</t>
+  </si>
+  <si>
+    <t>Click on “Mrs.” radio button</t>
+  </si>
+  <si>
+    <t>Click on “Mr.” radio button</t>
+  </si>
+  <si>
+    <t>The user can't checked both radio button at the same time</t>
+  </si>
+  <si>
+    <t>opened http://automationpractice.com/index.php and user already registered on that site, user is already logged in</t>
+  </si>
+  <si>
+    <t>Clear the “First name” field</t>
+  </si>
+  <si>
+    <t>Enter password in “Password” field</t>
+  </si>
+  <si>
+    <t>Click to “Save” button</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>The user can't save changes if the “First name” field is empty</t>
+  </si>
+  <si>
+    <t>firstname is required.</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLIST" button</t>
+  </si>
+  <si>
+    <t>Click on "Name" field</t>
+  </si>
+  <si>
+    <t>Enter wishlist name</t>
+  </si>
+  <si>
+    <t>ListTest</t>
+  </si>
+  <si>
+    <t>Click on "Save" button</t>
+  </si>
+  <si>
+    <t>The user successfully made wishlist table with entered name</t>
+  </si>
+  <si>
+    <t>Listtest1</t>
+  </si>
+  <si>
+    <t>Listtest2</t>
+  </si>
+  <si>
+    <t>Listtest3</t>
+  </si>
+  <si>
+    <t>The user successfully made multiple wishlist table with entered names</t>
+  </si>
+  <si>
+    <t>Click on "Delete" button which wishlist want to delete</t>
+  </si>
+  <si>
+    <t>The user successfully deleted the desire wishlist</t>
   </si>
 </sst>
 </file>
@@ -177,17 +398,34 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -220,101 +458,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,6 +480,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -350,7 +588,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +618,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,49 +690,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,79 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,18 +769,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,6 +791,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,6 +817,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,21 +850,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,21 +879,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,151 +902,181 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1129,96 +1397,921 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="62.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" ht="30" spans="2:3">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="30" spans="2:3">
-      <c r="B4" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="30" spans="2:3">
-      <c r="B5" t="s">
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="30" spans="2:3">
-      <c r="B6" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="30" spans="2:3">
-      <c r="B7" t="s">
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="30" spans="2:3">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="2:3">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="47.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="11.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" ht="30" spans="1:2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="2:2">
+      <c r="B9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="2:2">
+      <c r="B10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" spans="2:3">
+      <c r="B11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" spans="2:2">
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="42.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="46.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="9">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" ht="31.5" spans="1:3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="49.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="49.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="21.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" spans="1:2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" spans="2:2">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" ht="31.5" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>105</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="41.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" ht="30" spans="1:2">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="47.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" ht="30" spans="1:2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45" spans="1:2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +2326,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1245,18 +2338,18 @@
   <sheetData>
     <row r="1" ht="30" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1264,7 +2357,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:3">
@@ -1272,10 +2365,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1283,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1294,18 +2387,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +2413,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1332,18 +2425,18 @@
   <sheetData>
     <row r="1" ht="45" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1351,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1359,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1370,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1381,18 +2474,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1419,18 +2512,18 @@
   <sheetData>
     <row r="1" ht="30" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1438,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1446,10 +2539,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1457,10 +2550,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1468,18 +2561,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +2587,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1506,18 +2599,18 @@
   <sheetData>
     <row r="1" ht="45" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1525,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1533,19 +2626,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1553,18 +2646,18 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +2672,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1592,18 +2685,18 @@
   <sheetData>
     <row r="1" ht="30" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1611,7 +2704,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1619,10 +2712,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1630,31 +2723,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="4"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1668,30 +2761,30 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="16.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="47.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="20.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1699,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1707,10 +2800,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
+        <v>56</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1718,10 +2811,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1729,17 +2822,19 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1753,30 +2848,30 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="41.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="24.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="29.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" spans="1:2">
+    <row r="1" ht="45" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1784,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1792,35 +2887,38 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C7" s="9"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1834,7 +2932,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1846,18 +2944,18 @@
   <sheetData>
     <row r="1" ht="30" spans="1:2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1865,7 +2963,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" ht="30" spans="1:3">
@@ -1873,10 +2971,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1884,10 +2982,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1895,7 +2993,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1903,18 +3001,18 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
